--- a/Dobby/wl_addr.xlsx
+++ b/Dobby/wl_addr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\GIT\RPI\Dobby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\PycharmProjects\RPI\Dobby\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="0" windowWidth="27636" windowHeight="12456"/>
+    <workbookView xWindow="5868" yWindow="0" windowWidth="27636" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,10 +437,7 @@
     <col min="4" max="4" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="21" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -534,64 +531,64 @@
         <v>1398036225</v>
       </c>
       <c r="G2" s="8">
-        <f>F2+POWER(2,24)</f>
-        <v>1414813441</v>
+        <f>F2+G1-1</f>
+        <v>1398036226</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:U2" si="2">G2+POWER(2,24)</f>
-        <v>1431590657</v>
+        <f>F2+H1-1</f>
+        <v>1398036227</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" si="2"/>
-        <v>1448367873</v>
+        <f>F2+I1-1</f>
+        <v>1398036228</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" si="2"/>
-        <v>1465145089</v>
+        <f>F2+J1-1</f>
+        <v>1398036229</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="2"/>
-        <v>1481922305</v>
+        <f>F2+K1-1</f>
+        <v>1398036230</v>
       </c>
       <c r="L2" s="8">
-        <f t="shared" si="2"/>
-        <v>1498699521</v>
+        <f>F2+L1-1</f>
+        <v>1398036231</v>
       </c>
       <c r="M2" s="8">
-        <f t="shared" si="2"/>
-        <v>1515476737</v>
+        <f>F2+M1-1</f>
+        <v>1398036232</v>
       </c>
       <c r="N2" s="8">
-        <f t="shared" si="2"/>
-        <v>1532253953</v>
+        <f>F2+N1-1</f>
+        <v>1398036233</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" si="2"/>
-        <v>1549031169</v>
+        <f>F2+O1-1</f>
+        <v>1398036234</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" si="2"/>
-        <v>1565808385</v>
+        <f>F2+P1-1</f>
+        <v>1398036235</v>
       </c>
       <c r="Q2" s="8">
-        <f t="shared" si="2"/>
-        <v>1582585601</v>
+        <f>F2+Q1-1</f>
+        <v>1398036236</v>
       </c>
       <c r="R2" s="8">
-        <f t="shared" si="2"/>
-        <v>1599362817</v>
+        <f>F2+R1-1</f>
+        <v>1398036237</v>
       </c>
       <c r="S2" s="8">
-        <f t="shared" si="2"/>
-        <v>1616140033</v>
+        <f>F2+S1-1</f>
+        <v>1398036238</v>
       </c>
       <c r="T2" s="8">
-        <f t="shared" si="2"/>
-        <v>1632917249</v>
+        <f>F2+T1-1</f>
+        <v>1398036239</v>
       </c>
       <c r="U2" s="8">
-        <f t="shared" si="2"/>
-        <v>1649694465</v>
+        <f>F2+U1-1</f>
+        <v>1398036240</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -603,15 +600,15 @@
         <v>57</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f t="shared" ref="C3" si="3">DEC2HEX(C2)</f>
+        <f t="shared" ref="C3" si="2">DEC2HEX(C2)</f>
         <v>54</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f t="shared" ref="D3" si="4">DEC2HEX(D2)</f>
+        <f t="shared" ref="D3" si="3">DEC2HEX(D2)</f>
         <v>53</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3" si="5">DEC2HEX(E2)</f>
+        <f t="shared" ref="E3" si="4">DEC2HEX(E2)</f>
         <v>1</v>
       </c>
       <c r="F3" s="9" t="str">
@@ -619,64 +616,64 @@
         <v>53545701</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:U3" si="6">DEC2HEX(G2)</f>
-        <v>54545701</v>
+        <f>DEC2HEX(G2)</f>
+        <v>53545702</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>55545701</v>
+        <f>DEC2HEX(H2)</f>
+        <v>53545703</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>56545701</v>
+        <f>DEC2HEX(I2)</f>
+        <v>53545704</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>57545701</v>
+        <f t="shared" ref="G3:U3" si="5">DEC2HEX(J2)</f>
+        <v>53545705</v>
       </c>
       <c r="K3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>58545701</v>
+        <f t="shared" si="5"/>
+        <v>53545706</v>
       </c>
       <c r="L3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>59545701</v>
+        <f t="shared" si="5"/>
+        <v>53545707</v>
       </c>
       <c r="M3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>5A545701</v>
+        <f t="shared" si="5"/>
+        <v>53545708</v>
       </c>
       <c r="N3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>5B545701</v>
+        <f t="shared" si="5"/>
+        <v>53545709</v>
       </c>
       <c r="O3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>5C545701</v>
+        <f t="shared" si="5"/>
+        <v>5354570A</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>5D545701</v>
+        <f t="shared" si="5"/>
+        <v>5354570B</v>
       </c>
       <c r="Q3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>5E545701</v>
+        <f t="shared" si="5"/>
+        <v>5354570C</v>
       </c>
       <c r="R3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>5F545701</v>
+        <f t="shared" si="5"/>
+        <v>5354570D</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>60545701</v>
+        <f t="shared" si="5"/>
+        <v>5354570E</v>
       </c>
       <c r="T3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>61545701</v>
+        <f t="shared" si="5"/>
+        <v>5354570F</v>
       </c>
       <c r="U3" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>62545701</v>
+        <f t="shared" si="5"/>
+        <v>53545710</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -710,15 +707,15 @@
         <v>66</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" ref="C6:E6" si="7">CODE(C5)</f>
+        <f t="shared" ref="C6:E6" si="6">CODE(C5)</f>
         <v>79</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="F6" s="9">
@@ -736,15 +733,15 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f t="shared" ref="C7:E7" si="8">DEC2HEX(C6)</f>
+        <f t="shared" ref="C7:E7" si="7">DEC2HEX(C6)</f>
         <v>4F</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4C</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -789,15 +786,15 @@
         <v>87</v>
       </c>
       <c r="C10" s="7">
-        <f t="shared" ref="C10" si="9">CODE(C9)</f>
+        <f t="shared" ref="C10" si="8">CODE(C9)</f>
         <v>70</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" ref="D10" si="10">CODE(D9)</f>
+        <f t="shared" ref="D10" si="9">CODE(D9)</f>
         <v>67</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" ref="E10" si="11">CODE(E9)</f>
+        <f t="shared" ref="E10" si="10">CODE(E9)</f>
         <v>82</v>
       </c>
       <c r="F10" s="9">
@@ -815,15 +812,15 @@
         <v>57</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f t="shared" ref="C11" si="12">DEC2HEX(C10)</f>
+        <f t="shared" ref="C11" si="11">DEC2HEX(C10)</f>
         <v>46</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f t="shared" ref="D11" si="13">DEC2HEX(D10)</f>
+        <f t="shared" ref="D11" si="12">DEC2HEX(D10)</f>
         <v>43</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f t="shared" ref="E11" si="14">DEC2HEX(E10)</f>
+        <f t="shared" ref="E11" si="13">DEC2HEX(E10)</f>
         <v>52</v>
       </c>
       <c r="F11" s="9" t="str">
